--- a/API_v1.7.xlsx
+++ b/API_v1.7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choiwonjun/Desktop/workspace/contest/2022 CJ/CJ-Delivery-Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FDF584-0CDB-B54C-97DD-E7702085837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379444DA-3D30-FB40-A00E-87584C9D83D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" activeTab="3" xr2:uid="{1E341517-BC11-234E-82B8-F5E49E08D4A0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" activeTab="1" xr2:uid="{1E341517-BC11-234E-82B8-F5E49E08D4A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="267">
   <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1074,6 +1074,10 @@
   </si>
   <si>
     <t>배송물품 좌석 위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jinsangjin.tistory.com/156</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1081,7 +1085,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1145,6 +1149,15 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1181,12 +1194,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,9 +1248,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1887,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD53461-2E64-A94A-A7F3-2763593D7F81}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3482,8 +3502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF627A-0305-2646-9B0C-D3CC9DB19EAA}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3881,8 +3901,8 @@
       <c r="F30" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G30" t="s">
-        <v>138</v>
+      <c r="G30" s="15" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4064,6 +4084,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G30" r:id="rId1" xr:uid="{0F45A419-9BA9-3C41-B166-9708B4766817}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
